--- a/development/Economy Revamp.xlsx
+++ b/development/Economy Revamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C91342-532C-48D0-B77F-19F9F307CDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C01869-94B9-4E03-A881-92A928491F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12870" yWindow="0" windowWidth="15930" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,7 +642,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/development/Economy Revamp.xlsx
+++ b/development/Economy Revamp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C01869-94B9-4E03-A881-92A928491F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352BC62B-648E-4828-AD4F-D20450B89E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="0" windowWidth="15930" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12435" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -102,18 +102,6 @@
     <t>ammo_5.7x28_ss195</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>9x19 JHP</t>
   </si>
   <si>
@@ -181,6 +169,150 @@
   </si>
   <si>
     <t>7.62x57 AP</t>
+  </si>
+  <si>
+    <t>ammo_5.45x39_fmj</t>
+  </si>
+  <si>
+    <t>ammo_5.45x39_ep</t>
+  </si>
+  <si>
+    <t>ammo_5.45x39_ap</t>
+  </si>
+  <si>
+    <t>ammo_5.56x45_fmj</t>
+  </si>
+  <si>
+    <t>ammo_5.56x45_ss190</t>
+  </si>
+  <si>
+    <t>ammo_5.56x45_ap</t>
+  </si>
+  <si>
+    <t>ammo_9x39_pab9</t>
+  </si>
+  <si>
+    <t>ammo_9x39_ap</t>
+  </si>
+  <si>
+    <t>ammo_12x70_buck</t>
+  </si>
+  <si>
+    <t>ammo_12x76_zhekan</t>
+  </si>
+  <si>
+    <t>ammo_12x70_buck_self</t>
+  </si>
+  <si>
+    <t>ammo_12x76_bull</t>
+  </si>
+  <si>
+    <t>ammo_12x76_dart</t>
+  </si>
+  <si>
+    <t>ammo_4.6x30_fmj</t>
+  </si>
+  <si>
+    <t>ammo_12.7x55_fmj</t>
+  </si>
+  <si>
+    <t>ammo_12.7x55_ap</t>
+  </si>
+  <si>
+    <t>ammo_magnum_300</t>
+  </si>
+  <si>
+    <t>ammo_50_bmg</t>
+  </si>
+  <si>
+    <t>ammo_vog-25</t>
+  </si>
+  <si>
+    <t>ammo_m209</t>
+  </si>
+  <si>
+    <t>ammo_og-7b</t>
+  </si>
+  <si>
+    <t>ammo_gauss</t>
+  </si>
+  <si>
+    <t>ammo_gauss_cardan</t>
+  </si>
+  <si>
+    <t>5.45x39 FMJ</t>
+  </si>
+  <si>
+    <t>5.45x39 EP</t>
+  </si>
+  <si>
+    <t>5.45x39 AP</t>
+  </si>
+  <si>
+    <t>5.56x45 FMJ</t>
+  </si>
+  <si>
+    <t>5.56x45 EP</t>
+  </si>
+  <si>
+    <t>5.56x45 AP</t>
+  </si>
+  <si>
+    <t>9x39 SP-5</t>
+  </si>
+  <si>
+    <t>9x39 SP-9</t>
+  </si>
+  <si>
+    <t>4.6x30 FMJ</t>
+  </si>
+  <si>
+    <t>12.7x55 AP</t>
+  </si>
+  <si>
+    <t>12x70 shot</t>
+  </si>
+  <si>
+    <t>12x76 slug</t>
+  </si>
+  <si>
+    <t>12.7x55</t>
+  </si>
+  <si>
+    <t>12x76 Bull</t>
+  </si>
+  <si>
+    <t>12x76 dart</t>
+  </si>
+  <si>
+    <t>12x70 shot (?)</t>
+  </si>
+  <si>
+    <t>.338 Lapua Magnum</t>
+  </si>
+  <si>
+    <t>.50 BMG</t>
+  </si>
+  <si>
+    <t>VOG-25</t>
+  </si>
+  <si>
+    <t>M203</t>
+  </si>
+  <si>
+    <t>OG-7V</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>Makeshift batteries</t>
+  </si>
+  <si>
+    <t>5.7x28 ACP</t>
+  </si>
+  <si>
+    <t>5.7x28 HS</t>
   </si>
 </sst>
 </file>
@@ -641,13 +773,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
@@ -684,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -694,7 +826,9 @@
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8">
+        <v>200</v>
+      </c>
       <c r="D2" s="2">
         <v>560</v>
       </c>
@@ -709,7 +843,9 @@
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9">
+        <v>350</v>
+      </c>
       <c r="D3" s="3">
         <v>960</v>
       </c>
@@ -724,7 +860,9 @@
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8">
+        <v>500</v>
+      </c>
       <c r="D4" s="2">
         <v>840</v>
       </c>
@@ -739,7 +877,9 @@
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9">
+        <v>250</v>
+      </c>
       <c r="D5" s="3">
         <v>645</v>
       </c>
@@ -749,12 +889,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>350</v>
+      </c>
       <c r="D6" s="2">
         <v>1125</v>
       </c>
@@ -764,12 +906,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9">
+        <v>600</v>
+      </c>
       <c r="D7" s="3">
         <v>1300</v>
       </c>
@@ -784,7 +928,9 @@
       <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8">
+        <v>200</v>
+      </c>
       <c r="D8" s="2">
         <v>750</v>
       </c>
@@ -799,7 +945,9 @@
       <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9">
+        <v>300</v>
+      </c>
       <c r="D9" s="3">
         <v>1120</v>
       </c>
@@ -814,7 +962,9 @@
       <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8">
+        <v>500</v>
+      </c>
       <c r="D10" s="2">
         <v>1430</v>
       </c>
@@ -829,7 +979,9 @@
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9">
+        <v>400</v>
+      </c>
       <c r="D11" s="3">
         <v>910</v>
       </c>
@@ -844,7 +996,9 @@
       <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8">
+        <v>650</v>
+      </c>
       <c r="D12" s="2">
         <v>1596</v>
       </c>
@@ -854,12 +1008,14 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9">
+        <v>650</v>
+      </c>
       <c r="D13" s="3">
         <v>1600</v>
       </c>
@@ -869,12 +1025,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8">
+        <v>500</v>
+      </c>
       <c r="D14" s="2">
         <v>1275</v>
       </c>
@@ -884,12 +1042,14 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="C15" s="9">
+        <v>750</v>
+      </c>
       <c r="D15" s="3">
         <v>1530</v>
       </c>
@@ -899,12 +1059,14 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="C16" s="8">
+        <v>900</v>
+      </c>
       <c r="D16" s="2">
         <v>2580</v>
       </c>
@@ -914,12 +1076,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="C17" s="9">
+        <v>900</v>
+      </c>
       <c r="D17" s="3">
         <v>2250</v>
       </c>
@@ -929,12 +1093,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1200</v>
+      </c>
       <c r="D18" s="2">
         <v>3750</v>
       </c>
@@ -944,12 +1110,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="C19" s="9">
+        <v>600</v>
+      </c>
       <c r="D19" s="3">
         <v>1400</v>
       </c>
@@ -959,12 +1127,14 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="8">
+        <v>1000</v>
+      </c>
       <c r="D20" s="2">
         <v>2350</v>
       </c>
@@ -974,12 +1144,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1400</v>
+      </c>
       <c r="D21" s="3">
         <v>3000</v>
       </c>
@@ -989,12 +1161,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2800</v>
+      </c>
       <c r="D22" s="2">
         <v>6250</v>
       </c>
@@ -1004,12 +1178,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1400</v>
+      </c>
       <c r="D23" s="3">
         <v>1980</v>
       </c>
@@ -1019,12 +1195,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1800</v>
+      </c>
       <c r="D24" s="2">
         <v>3120</v>
       </c>
@@ -1033,165 +1211,395 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="15"/>
+      <c r="A25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="9">
+        <v>600</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1350</v>
+      </c>
+      <c r="E25" s="15">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="8">
+        <v>850</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="14">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="15"/>
+      <c r="A27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="15">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="8">
+        <v>750</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E28" s="14">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="15"/>
+      <c r="A29" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="15">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1400</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3330</v>
+      </c>
+      <c r="E30" s="14">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="15"/>
+      <c r="A31" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E31" s="15">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="14"/>
+      <c r="A32" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3750</v>
+      </c>
+      <c r="E32" s="14">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="15"/>
+      <c r="A33" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="9">
+        <v>300</v>
+      </c>
+      <c r="D33" s="3">
+        <v>750</v>
+      </c>
+      <c r="E33" s="15">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="14"/>
+      <c r="A34" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="8">
+        <v>350</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E34" s="14">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="15"/>
+      <c r="A35" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="9">
+        <v>300</v>
+      </c>
+      <c r="D35" s="3">
+        <v>460</v>
+      </c>
+      <c r="E35" s="15">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="14"/>
+      <c r="A36" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E36" s="14">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="15"/>
+      <c r="A37" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="9">
+        <v>500</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="15">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="14"/>
+      <c r="A38" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="8">
+        <v>800</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E38" s="14">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="15"/>
+      <c r="A39" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D39" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E39" s="15">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="14"/>
+      <c r="A40" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="8">
+        <v>4500</v>
+      </c>
+      <c r="D40" s="2">
+        <v>12500</v>
+      </c>
+      <c r="E40" s="14">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="15"/>
+      <c r="A41" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4250</v>
+      </c>
+      <c r="E41" s="15">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="14"/>
+      <c r="A42" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3200</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E42" s="14">
+        <v>15</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="15"/>
+      <c r="A43" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="9">
+        <v>3500</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2180</v>
+      </c>
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="14"/>
+      <c r="A44" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="8">
+        <v>3650</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2264</v>
+      </c>
+      <c r="E44" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="15"/>
+      <c r="A45" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2490</v>
+      </c>
+      <c r="E45" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="14"/>
+      <c r="A46" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="8">
+        <v>8000</v>
+      </c>
+      <c r="D46" s="2">
+        <v>11990</v>
+      </c>
+      <c r="E46" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="15"/>
+      <c r="A47" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="9">
+        <v>6000</v>
+      </c>
+      <c r="D47" s="3">
+        <v>8399</v>
+      </c>
+      <c r="E47" s="15">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>

--- a/development/Economy Revamp.xlsx
+++ b/development/Economy Revamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352BC62B-648E-4828-AD4F-D20450B89E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90863CD-7650-43E1-8CD8-82279CBA0106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12435" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,7 +1581,7 @@
         <v>11990</v>
       </c>
       <c r="E46" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>8399</v>
       </c>
       <c r="E47" s="15">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">

--- a/development/Economy Revamp.xlsx
+++ b/development/Economy Revamp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\S.T.A.L.K.E.R\Anomaly Mods\mods\Back-to-roots-wip\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90863CD-7650-43E1-8CD8-82279CBA0106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EA180E-7E4F-4F5E-8AA0-4A55AED3B98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12435" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="3105" windowWidth="15255" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>5.7x28 HS</t>
+  </si>
+  <si>
+    <t>wpn_ak74</t>
+  </si>
+  <si>
+    <t>AK-74N</t>
+  </si>
+  <si>
+    <t>RPK-74N</t>
+  </si>
+  <si>
+    <t>wpn_ak74_rpk</t>
   </si>
 </sst>
 </file>
@@ -328,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +437,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -438,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,6 +508,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,11 +830,11 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="15.140625" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
@@ -802,7 +848,7 @@
     <col min="21" max="21" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -818,8 +864,21 @@
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="18"/>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
@@ -835,8 +894,21 @@
       <c r="E2" s="14">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="18"/>
+      <c r="G2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="26">
+        <v>8000</v>
+      </c>
+      <c r="J2" s="27">
+        <v>26950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
@@ -852,8 +924,21 @@
       <c r="E3" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="18"/>
+      <c r="G3" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="28">
+        <v>10000</v>
+      </c>
+      <c r="J3" s="29">
+        <v>33680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
@@ -869,8 +954,13 @@
       <c r="E4" s="14">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="18"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
@@ -886,8 +976,13 @@
       <c r="E5" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="18"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>25</v>
       </c>
@@ -903,8 +998,13 @@
       <c r="E6" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="18"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
@@ -920,8 +1020,13 @@
       <c r="E7" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="18"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
@@ -937,8 +1042,13 @@
       <c r="E8" s="14">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="18"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
@@ -954,8 +1064,13 @@
       <c r="E9" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="18"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>0.35699999999999998</v>
       </c>
@@ -971,8 +1086,13 @@
       <c r="E10" s="14">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="18"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>18</v>
       </c>
@@ -988,8 +1108,13 @@
       <c r="E11" s="15">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="18"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
@@ -1005,8 +1130,13 @@
       <c r="E12" s="14">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="18"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>94</v>
       </c>
@@ -1022,8 +1152,13 @@
       <c r="E13" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="18"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>95</v>
       </c>
@@ -1039,8 +1174,13 @@
       <c r="E14" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="18"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -1056,8 +1196,13 @@
       <c r="E15" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="18"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>30</v>
       </c>
@@ -1073,8 +1218,13 @@
       <c r="E16" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="18"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>31</v>
       </c>
@@ -1090,8 +1240,13 @@
       <c r="E17" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="18"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
@@ -1107,8 +1262,13 @@
       <c r="E18" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="18"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>35</v>
       </c>
@@ -1124,8 +1284,13 @@
       <c r="E19" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="18"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>36</v>
       </c>
@@ -1141,8 +1306,13 @@
       <c r="E20" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="18"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>37</v>
       </c>
@@ -1158,8 +1328,13 @@
       <c r="E21" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="18"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>42</v>
       </c>
@@ -1175,8 +1350,13 @@
       <c r="E22" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="18"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>46</v>
       </c>
@@ -1192,8 +1372,13 @@
       <c r="E23" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="18"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>47</v>
       </c>
@@ -1209,8 +1394,13 @@
       <c r="E24" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="18"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>71</v>
       </c>
@@ -1226,8 +1416,13 @@
       <c r="E25" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="18"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>72</v>
       </c>
@@ -1243,8 +1438,13 @@
       <c r="E26" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="18"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>73</v>
       </c>
@@ -1260,8 +1460,13 @@
       <c r="E27" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="18"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>74</v>
       </c>
@@ -1277,8 +1482,13 @@
       <c r="E28" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="18"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>75</v>
       </c>
@@ -1294,8 +1504,13 @@
       <c r="E29" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="18"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>76</v>
       </c>
@@ -1311,8 +1526,13 @@
       <c r="E30" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="18"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>77</v>
       </c>
@@ -1328,8 +1548,13 @@
       <c r="E31" s="15">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="18"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>78</v>
       </c>
@@ -1345,8 +1570,13 @@
       <c r="E32" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="18"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>81</v>
       </c>
@@ -1362,8 +1592,13 @@
       <c r="E33" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="18"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>82</v>
       </c>
@@ -1379,8 +1614,13 @@
       <c r="E34" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="18"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>86</v>
       </c>
@@ -1396,8 +1636,13 @@
       <c r="E35" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="18"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>84</v>
       </c>
@@ -1413,8 +1658,13 @@
       <c r="E36" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="18"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>85</v>
       </c>
@@ -1430,8 +1680,13 @@
       <c r="E37" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="18"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>79</v>
       </c>
@@ -1447,8 +1702,13 @@
       <c r="E38" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="18"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>83</v>
       </c>
@@ -1464,8 +1724,13 @@
       <c r="E39" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="18"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>80</v>
       </c>
@@ -1481,8 +1746,13 @@
       <c r="E40" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="18"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>87</v>
       </c>
@@ -1498,8 +1768,13 @@
       <c r="E41" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="18"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>88</v>
       </c>
@@ -1515,8 +1790,13 @@
       <c r="E42" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="18"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>89</v>
       </c>
@@ -1532,8 +1812,13 @@
       <c r="E43" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="18"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>90</v>
       </c>
@@ -1549,8 +1834,13 @@
       <c r="E44" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="18"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>91</v>
       </c>
@@ -1566,8 +1856,13 @@
       <c r="E45" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="18"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>92</v>
       </c>
@@ -1583,8 +1878,13 @@
       <c r="E46" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="18"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>93</v>
       </c>
@@ -1600,29 +1900,52 @@
       <c r="E47" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="18"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="13"/>
       <c r="C48" s="8"/>
       <c r="D48" s="2"/>
       <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="18"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="12"/>
       <c r="C49" s="9"/>
       <c r="D49" s="3"/>
       <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="18"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="13"/>
       <c r="C50" s="8"/>
       <c r="D50" s="2"/>
       <c r="E50" s="14"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:F50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>